--- a/weight_matrix.xlsx
+++ b/weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\диплом 2\Social-engineering-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861AC032-C6F3-403E-8864-7406BBEA1F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD666E-9385-4226-8CDB-8AA15EB8323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{83E49320-1D92-49CB-A06E-62478F7B630E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="42">
   <si>
     <t>Питання</t>
   </si>
@@ -161,66 +161,6 @@
   </si>
   <si>
     <t>Q25</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.2222</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0.0250</t>
-  </si>
-  <si>
-    <t>0.0270</t>
-  </si>
-  <si>
-    <t>0.1290</t>
-  </si>
-  <si>
-    <t>0.0769</t>
-  </si>
-  <si>
-    <t>0.0612</t>
-  </si>
-  <si>
-    <t>0.1750</t>
-  </si>
-  <si>
-    <t>0.1935</t>
-  </si>
-  <si>
-    <t>0.0811</t>
-  </si>
-  <si>
-    <t>0.0645</t>
-  </si>
-  <si>
-    <t>0.1837</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>0.2162</t>
-  </si>
-  <si>
-    <t>0.0385</t>
-  </si>
-  <si>
-    <t>0.0556</t>
-  </si>
-  <si>
-    <t>0.1081</t>
-  </si>
-  <si>
-    <t>0.1000</t>
-  </si>
-  <si>
-    <t>0.1111</t>
   </si>
 </sst>
 </file>
@@ -293,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +246,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B632335-AA6F-4BB9-8A7A-1BF4B0B7912A}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,576 +1239,579 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>47</v>
+      <c r="B2" s="4">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
+      <c r="B3" s="4">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
+      <c r="B4" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.19350000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
+      <c r="B5" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1837</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.2162</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
+      <c r="B10" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.1081</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>53</v>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.2162</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
+      <c r="B13" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
+      <c r="B14" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.2162</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>53</v>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.1837</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>44</v>
+      <c r="B17" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.1081</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>51</v>
+      <c r="B18" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.1111</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.19350000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
+      <c r="B19" s="4">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.129</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>44</v>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>53</v>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>44</v>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.1081</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
+      <c r="B23" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.1111</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>44</v>
+      <c r="B24" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>51</v>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.19350000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B26" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
